--- a/Data/50명 데이터 평가_1119기준.xlsx
+++ b/Data/50명 데이터 평가_1119기준.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Sejong University\0캡스톤\Data_수집\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\THIS _\github\capstone_team2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="113" documentId="11_759772FA8A324785544ACA396CF95BCDC59C8833" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{37654F4E-EED8-4DAB-95DB-86BDC89D7524}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E40B95-0F83-45E0-832A-AC78D5080E95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3636" yWindow="684" windowWidth="11724" windowHeight="10992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="23명" sheetId="2" r:id="rId1"/>
@@ -206,11 +206,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>감성+단어분석시간</t>
+    <t>단어카운트시간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>단어카운트시간</t>
+    <t>전체시간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -218,7 +218,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,6 +243,25 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212121"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -266,18 +285,122 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -608,10 +731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04AD7514-B99F-46DF-B3E6-B845649CB7C7}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -625,498 +748,762 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="6">
         <v>498</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="6">
         <v>20.602174997329701</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="6">
         <v>9.6486806869506794E-2</v>
       </c>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+      <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="6">
         <v>408</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="6">
         <v>16.559296369552602</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="6">
         <v>3.1984329223632799E-2</v>
       </c>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+      <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="6">
         <v>497</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="6">
         <v>20.0211408138275</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="6">
         <v>4.7508239746093701E-2</v>
       </c>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+      <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="6">
         <v>365</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="6">
         <v>14.596268415451</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="6">
         <v>4.28814888000488E-2</v>
       </c>
+      <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+      <c r="A6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="6">
         <v>130</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="6">
         <v>5.47804355621337</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="6">
         <v>2.7698755264282199E-2</v>
       </c>
+      <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+      <c r="A7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="6">
         <v>786</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="6">
         <v>31.438863992691001</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="6">
         <v>0.526383876800537</v>
       </c>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+      <c r="A8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="6">
         <v>258</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="6">
         <v>10.3284599781036</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="6">
         <v>0.53839874267578103</v>
       </c>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+      <c r="A9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="6">
         <v>253</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="6">
         <v>10.30344581604</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="6">
         <v>2.3550748825073201E-2</v>
       </c>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+      <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="6">
         <v>549</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="6">
         <v>21.726552248001099</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="6">
         <v>4.5272111892700098E-2</v>
       </c>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+      <c r="A11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="6">
         <v>407</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="6">
         <v>16.351175785064601</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="6">
         <v>5.6320428848266602E-2</v>
       </c>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
+      <c r="A12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="6">
         <v>1253</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="6">
         <v>48.607793569564798</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="6">
         <v>6.1602354049682603E-2</v>
       </c>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
+      <c r="A13" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="6">
         <v>1133</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="6">
         <v>43.759671688079798</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="6">
         <v>0.14481854438781699</v>
       </c>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
+      <c r="A14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="6">
         <v>170</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="6">
         <v>7.1584794521331698</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="6">
         <v>2.27377414703369E-2</v>
       </c>
+      <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
+      <c r="A15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="6">
         <v>779</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="6">
         <v>31.2457275390625</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="6">
         <v>7.7726840972900293E-2</v>
       </c>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
+      <c r="A16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="6">
         <v>806</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="6">
         <v>31.9371898174285</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="6">
         <v>9.2382907867431599E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="6">
         <v>403</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="6">
         <v>16.304977178573601</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="6">
         <v>2.91690826416015E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="6">
         <v>490</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="6">
         <v>19.872832298278801</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="6">
         <v>5.5992126464843701E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="6">
         <v>2115</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="6">
         <v>83.933986663818303</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="6">
         <v>0.254040718078613</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="6">
         <v>671</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="6">
         <v>27.372517108917201</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="6">
         <v>7.3995351791381794E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="6">
         <v>229</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="6">
         <v>9.3751652240753103</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="6">
         <v>1.7417430877685498E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A22" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="6">
         <v>888</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="6">
         <v>35.673501014709402</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="6">
         <v>35.673501014709402</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A23" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="6">
         <v>100</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="6">
         <v>4.33204770088195</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="6">
         <v>1.3067483901977499E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A24" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="6">
         <v>353</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="6">
         <v>13.999020338058401</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="6">
         <v>5.37552833557128E-2</v>
       </c>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G24" xr:uid="{03964D2A-9CE5-43C6-A8AA-B3BA8D6D6CEE}"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A27:A28 A2:A24">
-    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
+  <conditionalFormatting sqref="A2:A24">
+    <cfRule type="duplicateValues" dxfId="9" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:B28 B2:B24">
-    <cfRule type="duplicateValues" dxfId="0" priority="18"/>
+  <conditionalFormatting sqref="B2:B24">
+    <cfRule type="duplicateValues" dxfId="8" priority="26"/>
   </conditionalFormatting>
-  <dataValidations count="7">
+  <conditionalFormatting sqref="A48 A50:A51 A46 A25:A44">
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B48 B50:B51 B46 B25:B44">
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45">
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <dataValidations count="12">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="중복된 이름" error="중복된 이름 이름 입력" sqref="A15:A16" xr:uid="{61940BB0-3E92-46BC-8049-6329811212F6}">
       <formula1>COUNTIF($J$2:$J$100,A15)&lt;=1</formula1>
     </dataValidation>
@@ -1132,11 +1519,26 @@
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10:A12" xr:uid="{75EE1AF5-785A-4824-9BF9-CFD831887265}">
       <formula1>COUNTIF($D$2:$D$130,D1048407)&lt;=1</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A7" xr:uid="{C9D0ED2C-F536-4356-82EE-EFEFAC46350C}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A7 A25:A30" xr:uid="{C9D0ED2C-F536-4356-82EE-EFEFAC46350C}">
       <formula1>COUNTIF($A$2:$A$114,A2)&lt;=1</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B7" xr:uid="{82936140-F5E5-4D87-81FC-52DF80A1277E}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B7 B25:B30" xr:uid="{82936140-F5E5-4D87-81FC-52DF80A1277E}">
       <formula1>COUNTIF($B$2:$B$114,B2)&lt;=1</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31:B34 B49" xr:uid="{7349CC50-E348-416F-B2D3-229D2667BA3F}">
+      <formula1>COUNTIF($D$2:$D$8,B31)&lt;=1</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37:B38" xr:uid="{FB1EBB24-17EF-46DE-A15B-148158AD7CDE}">
+      <formula1>COUNTIF($J$2:$J$100,B37)&lt;=1</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="중복된 이름" error="중복된 이름 이름 입력" sqref="A37:A38" xr:uid="{0A8ADD77-59AF-4ACA-AF8C-466E2A95500E}">
+      <formula1>COUNTIF($I$2:$I$100,A37)&lt;=1</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B40" xr:uid="{F879D17D-B1AD-4D72-9DD2-581CEA754C90}">
+      <formula1>COUNTIF($M$2:$M$46,B40)&lt;=1</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A31:A34 A49" xr:uid="{FADCA9AB-1836-4126-AE3D-E08A22C0A9C4}">
+      <formula1>COUNTIF(#REF!,#REF!)&lt;=1</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/50명 데이터 평가_1119기준.xlsx
+++ b/Data/50명 데이터 평가_1119기준.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\THIS _\github\capstone_team2\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\capstone_team2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E40B95-0F83-45E0-832A-AC78D5080E95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AADF819-8279-439A-90BC-46760F427379}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="23명" sheetId="2" r:id="rId1"/>
@@ -734,7 +734,7 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -789,7 +789,9 @@
       <c r="F2" s="6">
         <v>9.6486806869506794E-2</v>
       </c>
-      <c r="G2" s="6"/>
+      <c r="G2">
+        <v>20.306526660919101</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
@@ -810,7 +812,9 @@
       <c r="F3" s="6">
         <v>3.1984329223632799E-2</v>
       </c>
-      <c r="G3" s="6"/>
+      <c r="G3">
+        <v>18.317322254180901</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
@@ -831,7 +835,9 @@
       <c r="F4" s="6">
         <v>4.7508239746093701E-2</v>
       </c>
-      <c r="G4" s="6"/>
+      <c r="G4">
+        <v>19.8257701396942</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
@@ -852,7 +858,9 @@
       <c r="F5" s="6">
         <v>4.28814888000488E-2</v>
       </c>
-      <c r="G5" s="6"/>
+      <c r="G5">
+        <v>14.2588741779327</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
@@ -873,7 +881,9 @@
       <c r="F6" s="6">
         <v>2.7698755264282199E-2</v>
       </c>
-      <c r="G6" s="6"/>
+      <c r="G6">
+        <v>5.2393345832824698</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
@@ -894,7 +904,9 @@
       <c r="F7" s="6">
         <v>0.526383876800537</v>
       </c>
-      <c r="G7" s="6"/>
+      <c r="G7">
+        <v>31.206132650375299</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
@@ -915,7 +927,9 @@
       <c r="F8" s="6">
         <v>0.53839874267578103</v>
       </c>
-      <c r="G8" s="6"/>
+      <c r="G8">
+        <v>10.0659668445587</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
@@ -936,7 +950,9 @@
       <c r="F9" s="6">
         <v>2.3550748825073201E-2</v>
       </c>
-      <c r="G9" s="6"/>
+      <c r="G9">
+        <v>9.8113777637481601</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
@@ -957,7 +973,9 @@
       <c r="F10" s="6">
         <v>4.5272111892700098E-2</v>
       </c>
-      <c r="G10" s="6"/>
+      <c r="G10">
+        <v>21.941766738891602</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
@@ -978,7 +996,9 @@
       <c r="F11" s="6">
         <v>5.6320428848266602E-2</v>
       </c>
-      <c r="G11" s="6"/>
+      <c r="G11">
+        <v>15.9778418540954</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
@@ -999,7 +1019,9 @@
       <c r="F12" s="6">
         <v>6.1602354049682603E-2</v>
       </c>
-      <c r="G12" s="6"/>
+      <c r="G12">
+        <v>50.232567548751803</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
@@ -1020,7 +1042,9 @@
       <c r="F13" s="6">
         <v>0.14481854438781699</v>
       </c>
-      <c r="G13" s="6"/>
+      <c r="G13">
+        <v>46.210321426391602</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
@@ -1041,7 +1065,9 @@
       <c r="F14" s="6">
         <v>2.27377414703369E-2</v>
       </c>
-      <c r="G14" s="6"/>
+      <c r="G14">
+        <v>6.9598791599273602</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
@@ -1062,7 +1088,9 @@
       <c r="F15" s="6">
         <v>7.7726840972900293E-2</v>
       </c>
-      <c r="G15" s="6"/>
+      <c r="G15">
+        <v>31.207377195358202</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
@@ -1083,7 +1111,9 @@
       <c r="F16" s="6">
         <v>9.2382907867431599E-2</v>
       </c>
-      <c r="G16" s="6"/>
+      <c r="G16">
+        <v>32.248420476913402</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
@@ -1104,7 +1134,9 @@
       <c r="F17" s="6">
         <v>2.91690826416015E-2</v>
       </c>
-      <c r="G17" s="6"/>
+      <c r="G17">
+        <v>15.9281508922576</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
@@ -1125,7 +1157,9 @@
       <c r="F18" s="6">
         <v>5.5992126464843701E-2</v>
       </c>
-      <c r="G18" s="6"/>
+      <c r="G18">
+        <v>19.246995925903299</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
@@ -1146,7 +1180,9 @@
       <c r="F19" s="6">
         <v>0.254040718078613</v>
       </c>
-      <c r="G19" s="6"/>
+      <c r="G19">
+        <v>82.012855052947998</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
@@ -1167,7 +1203,9 @@
       <c r="F20" s="6">
         <v>7.3995351791381794E-2</v>
       </c>
-      <c r="G20" s="6"/>
+      <c r="G20">
+        <v>25.901648998260399</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
@@ -1188,7 +1226,9 @@
       <c r="F21" s="6">
         <v>1.7417430877685498E-2</v>
       </c>
-      <c r="G21" s="6"/>
+      <c r="G21">
+        <v>9.1046922206878609</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="6" t="s">
@@ -1206,10 +1246,12 @@
       <c r="E22" s="6">
         <v>35.673501014709402</v>
       </c>
-      <c r="F22" s="6">
-        <v>35.673501014709402</v>
-      </c>
-      <c r="G22" s="6"/>
+      <c r="F22">
+        <v>0.11128115653991601</v>
+      </c>
+      <c r="G22">
+        <v>35.101924419402998</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
@@ -1230,7 +1272,9 @@
       <c r="F23" s="6">
         <v>1.3067483901977499E-2</v>
       </c>
-      <c r="G23" s="6"/>
+      <c r="G23">
+        <v>4.0128233432769704</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
@@ -1251,7 +1295,9 @@
       <c r="F24" s="6">
         <v>5.37552833557128E-2</v>
       </c>
-      <c r="G24" s="6"/>
+      <c r="G24">
+        <v>14.0453674793243</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="7"/>

--- a/Data/50명 데이터 평가_1119기준.xlsx
+++ b/Data/50명 데이터 평가_1119기준.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\THIS _\github\capstone_team2\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\capstone_team2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D331ED8-5852-4D99-8DB9-77A72AEE2AF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538D8B09-E32B-4D21-BEC5-DB83C2A90450}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="23명" sheetId="2" r:id="rId1"/>
@@ -517,127 +517,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1090,117 +970,117 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2">
-        <v>498</v>
+        <v>2115</v>
       </c>
       <c r="E2" s="2">
-        <v>20.602174997329701</v>
+        <v>83.933986663818303</v>
       </c>
       <c r="F2" s="2">
-        <v>9.6486806869506794E-2</v>
+        <v>0.254040718078613</v>
       </c>
       <c r="G2" s="2">
-        <v>20.306526660919101</v>
+        <v>82.012855052947998</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2">
-        <v>408</v>
+        <v>1253</v>
       </c>
       <c r="E3" s="2">
-        <v>16.559296369552602</v>
+        <v>48.607793569564798</v>
       </c>
       <c r="F3" s="2">
-        <v>3.1984329223632799E-2</v>
+        <v>6.1602354049682603E-2</v>
       </c>
       <c r="G3" s="2">
-        <v>18.317322254180901</v>
+        <v>50.232567548751803</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2">
-        <v>497</v>
+        <v>1133</v>
       </c>
       <c r="E4" s="2">
-        <v>20.0211408138275</v>
+        <v>43.759671688079798</v>
       </c>
       <c r="F4" s="2">
-        <v>4.7508239746093701E-2</v>
+        <v>0.14481854438781699</v>
       </c>
       <c r="G4" s="2">
-        <v>19.8257701396942</v>
+        <v>46.210321426391602</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2">
-        <v>365</v>
+        <v>888</v>
       </c>
       <c r="E5" s="2">
-        <v>14.596268415451</v>
+        <v>35.673501014709402</v>
       </c>
       <c r="F5" s="2">
-        <v>4.28814888000488E-2</v>
+        <v>0.11128115653991601</v>
       </c>
       <c r="G5" s="2">
-        <v>14.2588741779327</v>
+        <v>35.101924419402998</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2">
-        <v>130</v>
+        <v>806</v>
       </c>
       <c r="E6" s="2">
-        <v>5.47804355621337</v>
+        <v>31.9371898174285</v>
       </c>
       <c r="F6" s="2">
-        <v>2.7698755264282199E-2</v>
+        <v>9.2382907867431599E-2</v>
       </c>
       <c r="G6" s="2">
-        <v>5.2393345832824698</v>
+        <v>32.248420476913402</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -1228,1024 +1108,1028 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2">
+        <v>779</v>
+      </c>
+      <c r="E8" s="2">
+        <v>31.2457275390625</v>
+      </c>
+      <c r="F8" s="2">
+        <v>7.7726840972900293E-2</v>
+      </c>
+      <c r="G8" s="2">
+        <v>31.207377195358202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="2">
-        <v>258</v>
-      </c>
-      <c r="E8" s="2">
-        <v>10.3284599781036</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.53839874267578103</v>
-      </c>
-      <c r="G8" s="2">
-        <v>10.0659668445587</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>253</v>
-      </c>
-      <c r="E9" s="2">
-        <v>10.30344581604</v>
-      </c>
-      <c r="F9" s="2">
-        <v>2.3550748825073201E-2</v>
-      </c>
-      <c r="G9" s="2">
-        <v>9.8113777637481601</v>
+      <c r="D9" s="3">
+        <v>696</v>
+      </c>
+      <c r="E9" s="3">
+        <v>29.549560785293501</v>
+      </c>
+      <c r="F9" s="3">
+        <v>4.6023368835449198E-2</v>
+      </c>
+      <c r="G9" s="3">
+        <v>28.923300504684399</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2">
-        <v>549</v>
+        <v>671</v>
       </c>
       <c r="E10" s="2">
-        <v>21.726552248001099</v>
+        <v>27.372517108917201</v>
       </c>
       <c r="F10" s="2">
-        <v>4.5272111892700098E-2</v>
+        <v>7.3995351791381794E-2</v>
       </c>
       <c r="G10" s="2">
-        <v>21.941766738891602</v>
+        <v>25.901648998260399</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="2">
-        <v>407</v>
-      </c>
-      <c r="E11" s="2">
-        <v>16.351175785064601</v>
-      </c>
-      <c r="F11" s="2">
-        <v>5.6320428848266602E-2</v>
-      </c>
-      <c r="G11" s="2">
-        <v>15.9778418540954</v>
+      <c r="A11" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="3">
+        <v>655</v>
+      </c>
+      <c r="E11" s="3">
+        <v>27.924854755401601</v>
+      </c>
+      <c r="F11" s="3">
+        <v>8.5153102874755804E-2</v>
+      </c>
+      <c r="G11" s="3">
+        <v>27.7305054664611</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="2">
-        <v>1253</v>
+        <v>549</v>
       </c>
       <c r="E12" s="2">
-        <v>48.607793569564798</v>
+        <v>21.726552248001099</v>
       </c>
       <c r="F12" s="2">
-        <v>6.1602354049682603E-2</v>
+        <v>4.5272111892700098E-2</v>
       </c>
       <c r="G12" s="2">
-        <v>50.232567548751803</v>
+        <v>21.941766738891602</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1133</v>
-      </c>
-      <c r="E13" s="2">
-        <v>43.759671688079798</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0.14481854438781699</v>
-      </c>
-      <c r="G13" s="2">
-        <v>46.210321426391602</v>
+      <c r="A13" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="3">
+        <v>549</v>
+      </c>
+      <c r="E13" s="3">
+        <v>23.226919651031402</v>
+      </c>
+      <c r="F13" s="3">
+        <v>8.0081462860107394E-2</v>
+      </c>
+      <c r="G13" s="3">
+        <v>23.4933021068573</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2">
-        <v>170</v>
+        <v>498</v>
       </c>
       <c r="E14" s="2">
-        <v>7.1584794521331698</v>
+        <v>20.602174997329701</v>
       </c>
       <c r="F14" s="2">
-        <v>2.27377414703369E-2</v>
+        <v>9.6486806869506794E-2</v>
       </c>
       <c r="G14" s="2">
-        <v>6.9598791599273602</v>
+        <v>20.306526660919101</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D15" s="2">
-        <v>779</v>
+        <v>497</v>
       </c>
       <c r="E15" s="2">
-        <v>31.2457275390625</v>
+        <v>20.0211408138275</v>
       </c>
       <c r="F15" s="2">
-        <v>7.7726840972900293E-2</v>
+        <v>4.7508239746093701E-2</v>
       </c>
       <c r="G15" s="2">
-        <v>31.207377195358202</v>
+        <v>19.8257701396942</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="2">
-        <v>806</v>
+        <v>490</v>
       </c>
       <c r="E16" s="2">
-        <v>31.9371898174285</v>
+        <v>19.872832298278801</v>
       </c>
       <c r="F16" s="2">
-        <v>9.2382907867431599E-2</v>
+        <v>5.5992126464843701E-2</v>
       </c>
       <c r="G16" s="2">
-        <v>32.248420476913402</v>
+        <v>19.246995925903299</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="2">
-        <v>403</v>
-      </c>
-      <c r="E17" s="2">
-        <v>16.304977178573601</v>
-      </c>
-      <c r="F17" s="2">
-        <v>2.91690826416015E-2</v>
-      </c>
-      <c r="G17" s="2">
-        <v>15.9281508922576</v>
+      <c r="A17" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="3">
+        <v>465</v>
+      </c>
+      <c r="E17" s="3">
+        <v>19.431892156600899</v>
+      </c>
+      <c r="F17" s="3">
+        <v>6.0044765472412102E-2</v>
+      </c>
+      <c r="G17" s="3">
+        <v>19.4617612361907</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="2">
-        <v>490</v>
+        <v>408</v>
       </c>
       <c r="E18" s="2">
-        <v>19.872832298278801</v>
+        <v>16.559296369552602</v>
       </c>
       <c r="F18" s="2">
-        <v>5.5992126464843701E-2</v>
+        <v>3.1984329223632799E-2</v>
       </c>
       <c r="G18" s="2">
-        <v>19.246995925903299</v>
+        <v>18.317322254180901</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="4" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D19" s="2">
-        <v>2115</v>
+        <v>407</v>
       </c>
       <c r="E19" s="2">
-        <v>83.933986663818303</v>
+        <v>16.351175785064601</v>
       </c>
       <c r="F19" s="2">
-        <v>0.254040718078613</v>
+        <v>5.6320428848266602E-2</v>
       </c>
       <c r="G19" s="2">
-        <v>82.012855052947998</v>
+        <v>15.9778418540954</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="2">
-        <v>671</v>
+        <v>403</v>
       </c>
       <c r="E20" s="2">
-        <v>27.372517108917201</v>
+        <v>16.304977178573601</v>
       </c>
       <c r="F20" s="2">
-        <v>7.3995351791381794E-2</v>
+        <v>2.91690826416015E-2</v>
       </c>
       <c r="G20" s="2">
-        <v>25.901648998260399</v>
+        <v>15.9281508922576</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="2">
-        <v>229</v>
-      </c>
-      <c r="E21" s="2">
-        <v>9.3751652240753103</v>
-      </c>
-      <c r="F21" s="2">
-        <v>1.7417430877685498E-2</v>
-      </c>
-      <c r="G21" s="2">
-        <v>9.1046922206878609</v>
+      <c r="A21" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>375</v>
+      </c>
+      <c r="E21" s="3">
+        <v>15.7863585948944</v>
+      </c>
+      <c r="F21" s="3">
+        <v>3.4587621688842697E-2</v>
+      </c>
+      <c r="G21" s="3">
+        <v>16.018714189529401</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D22" s="2">
-        <v>888</v>
+        <v>365</v>
       </c>
       <c r="E22" s="2">
-        <v>35.673501014709402</v>
+        <v>14.596268415451</v>
       </c>
       <c r="F22" s="2">
-        <v>0.11128115653991601</v>
+        <v>4.28814888000488E-2</v>
       </c>
       <c r="G22" s="2">
-        <v>35.101924419402998</v>
+        <v>14.2588741779327</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" s="2">
-        <v>100</v>
+        <v>353</v>
       </c>
       <c r="E23" s="2">
-        <v>4.33204770088195</v>
+        <v>13.999020338058401</v>
       </c>
       <c r="F23" s="2">
-        <v>1.3067483901977499E-2</v>
+        <v>5.37552833557128E-2</v>
       </c>
       <c r="G23" s="2">
-        <v>4.0128233432769704</v>
+        <v>14.0453674793243</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A24" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="2">
-        <v>353</v>
-      </c>
-      <c r="E24" s="2">
-        <v>13.999020338058401</v>
-      </c>
-      <c r="F24" s="2">
-        <v>5.37552833557128E-2</v>
-      </c>
-      <c r="G24" s="2">
-        <v>14.0453674793243</v>
+      <c r="A24" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="3">
+        <v>348</v>
+      </c>
+      <c r="E24" s="3">
+        <v>14.978069782257</v>
+      </c>
+      <c r="F24" s="3">
+        <v>3.6786556243896401E-2</v>
+      </c>
+      <c r="G24" s="3">
+        <v>14.859650850295999</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="5" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="D25" s="3">
-        <v>348</v>
+        <v>309</v>
       </c>
       <c r="E25" s="3">
-        <v>14.978069782257</v>
+        <v>13.197017908096299</v>
       </c>
       <c r="F25" s="3">
-        <v>3.6786556243896401E-2</v>
+        <v>3.3026218414306599E-2</v>
       </c>
       <c r="G25" s="3">
-        <v>14.859650850295999</v>
+        <v>13.2499542236328</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="5" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D26" s="3">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E26" s="3">
-        <v>11.721856594085599</v>
+        <v>11.803199529647801</v>
       </c>
       <c r="F26" s="3">
-        <v>2.8544187545776301E-2</v>
+        <v>2.74853706359863E-2</v>
       </c>
       <c r="G26" s="3">
-        <v>11.8016879558563</v>
+        <v>11.738484621047901</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D27" s="3">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="E27" s="3">
-        <v>11.8130700588226</v>
+        <v>11.721856594085599</v>
       </c>
       <c r="F27" s="3">
-        <v>2.4365901947021401E-2</v>
+        <v>2.8544187545776301E-2</v>
       </c>
       <c r="G27" s="3">
-        <v>11.6749420166015</v>
+        <v>11.8016879558563</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="D28" s="3">
-        <v>49</v>
+        <v>272</v>
       </c>
       <c r="E28" s="3">
-        <v>2.1520760059356601</v>
+        <v>11.8130700588226</v>
       </c>
       <c r="F28" s="3">
-        <v>1.41587257385253E-2</v>
+        <v>2.4365901947021401E-2</v>
       </c>
       <c r="G28" s="3">
-        <v>2.1773107051849299</v>
+        <v>11.6749420166015</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A29" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="5" t="s">
+      <c r="A29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D29" s="3">
-        <v>82</v>
-      </c>
-      <c r="E29" s="3">
-        <v>3.50532627105712</v>
-      </c>
-      <c r="F29" s="3">
-        <v>1.08335018157958E-2</v>
-      </c>
-      <c r="G29" s="3">
-        <v>3.5141718387603702</v>
+      <c r="D29" s="2">
+        <v>258</v>
+      </c>
+      <c r="E29" s="2">
+        <v>10.3284599781036</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0.53839874267578103</v>
+      </c>
+      <c r="G29" s="2">
+        <v>10.0659668445587</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A30" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="3">
-        <v>90</v>
-      </c>
-      <c r="E30" s="3">
-        <v>3.8413910865783598</v>
-      </c>
-      <c r="F30" s="3">
-        <v>1.2769699096679601E-2</v>
-      </c>
-      <c r="G30" s="3">
-        <v>3.6820578575134202</v>
+      <c r="A30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2">
+        <v>253</v>
+      </c>
+      <c r="E30" s="2">
+        <v>10.30344581604</v>
+      </c>
+      <c r="F30" s="2">
+        <v>2.3550748825073201E-2</v>
+      </c>
+      <c r="G30" s="2">
+        <v>9.8113777637481601</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="5" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D31" s="3">
-        <v>76</v>
+        <v>247</v>
       </c>
       <c r="E31" s="3">
-        <v>3.26987624168396</v>
+        <v>10.5903303623199</v>
       </c>
       <c r="F31" s="3">
-        <v>8.9621543884277292E-3</v>
+        <v>2.9929637908935498E-2</v>
       </c>
       <c r="G31" s="3">
-        <v>3.2665529251098602</v>
+        <v>10.201519012451101</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A32" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="5" t="s">
+      <c r="A32" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="3">
-        <v>209</v>
-      </c>
-      <c r="E32" s="3">
-        <v>8.8334183692932093</v>
-      </c>
-      <c r="F32" s="3">
-        <v>2.2646427154540998E-2</v>
-      </c>
-      <c r="G32" s="3">
-        <v>8.8590939044952393</v>
+      <c r="D32" s="2">
+        <v>229</v>
+      </c>
+      <c r="E32" s="2">
+        <v>9.3751652240753103</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1.7417430877685498E-2</v>
+      </c>
+      <c r="G32" s="2">
+        <v>9.1046922206878609</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D33" s="3">
-        <v>80</v>
+        <v>209</v>
       </c>
       <c r="E33" s="3">
-        <v>3.3842749595642001</v>
+        <v>8.8334183692932093</v>
       </c>
       <c r="F33" s="3">
-        <v>9.3469619750976493E-3</v>
+        <v>2.2646427154540998E-2</v>
       </c>
       <c r="G33" s="3">
-        <v>3.44901323318481</v>
+        <v>8.8590939044952393</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="5" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D34" s="3">
-        <v>655</v>
+        <v>209</v>
       </c>
       <c r="E34" s="3">
-        <v>27.924854755401601</v>
+        <v>8.8374128341674805</v>
       </c>
       <c r="F34" s="3">
-        <v>8.5153102874755804E-2</v>
+        <v>2.9088973999023399E-2</v>
       </c>
       <c r="G34" s="3">
-        <v>27.7305054664611</v>
+        <v>9.0336625576019198</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="3">
+        <v>205</v>
+      </c>
+      <c r="E35" s="3">
+        <v>8.4115614891052193</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1.69804096221923E-2</v>
+      </c>
+      <c r="G35" s="3">
+        <v>8.5281836986541695</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A36" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="2">
+        <v>170</v>
+      </c>
+      <c r="E36" s="2">
+        <v>7.1584794521331698</v>
+      </c>
+      <c r="F36" s="2">
+        <v>2.27377414703369E-2</v>
+      </c>
+      <c r="G36" s="2">
+        <v>6.9598791599273602</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A37" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B37" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D35" s="3">
-        <v>135</v>
-      </c>
-      <c r="E35" s="3">
-        <v>5.8522570133209202</v>
-      </c>
-      <c r="F35" s="3">
-        <v>1.59780979156494E-2</v>
-      </c>
-      <c r="G35" s="3">
-        <v>5.8040037155151296</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A36" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" s="3">
-        <v>205</v>
-      </c>
-      <c r="E36" s="3">
-        <v>8.4115614891052193</v>
-      </c>
-      <c r="F36" s="3">
-        <v>1.69804096221923E-2</v>
-      </c>
-      <c r="G36" s="3">
-        <v>8.5281836986541695</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A37" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D37" s="3">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="E37" s="3">
-        <v>3.4491879940032901</v>
+        <v>5.8522570133209202</v>
       </c>
       <c r="F37" s="3">
-        <v>1.3151168823242101E-2</v>
+        <v>1.59780979156494E-2</v>
       </c>
       <c r="G37" s="3">
-        <v>3.4237935543060298</v>
+        <v>5.8040037155151296</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A38" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" s="3">
-        <v>549</v>
-      </c>
-      <c r="E38" s="3">
-        <v>23.226919651031402</v>
-      </c>
-      <c r="F38" s="3">
-        <v>8.0081462860107394E-2</v>
-      </c>
-      <c r="G38" s="3">
-        <v>23.4933021068573</v>
+      <c r="A38" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2">
+        <v>130</v>
+      </c>
+      <c r="E38" s="2">
+        <v>5.47804355621337</v>
+      </c>
+      <c r="F38" s="2">
+        <v>2.7698755264282199E-2</v>
+      </c>
+      <c r="G38" s="2">
+        <v>5.2393345832824698</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D39" s="3">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E39" s="3">
-        <v>4.6614308357238698</v>
+        <v>5.0952785015106201</v>
       </c>
       <c r="F39" s="3">
-        <v>1.11787319183349E-2</v>
+        <v>1.8336296081542899E-2</v>
       </c>
       <c r="G39" s="3">
-        <v>4.7065446376800502</v>
+        <v>5.1416106224059996</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D40" s="3">
-        <v>696</v>
+        <v>114</v>
       </c>
       <c r="E40" s="3">
-        <v>29.549560785293501</v>
+        <v>4.6614308357238698</v>
       </c>
       <c r="F40" s="3">
-        <v>4.6023368835449198E-2</v>
+        <v>1.11787319183349E-2</v>
       </c>
       <c r="G40" s="3">
-        <v>28.923300504684399</v>
+        <v>4.7065446376800502</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A41" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D41" s="3">
-        <v>279</v>
-      </c>
-      <c r="E41" s="3">
-        <v>11.803199529647801</v>
-      </c>
-      <c r="F41" s="3">
-        <v>2.74853706359863E-2</v>
-      </c>
-      <c r="G41" s="3">
-        <v>11.738484621047901</v>
+      <c r="A41" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="2">
+        <v>100</v>
+      </c>
+      <c r="E41" s="2">
+        <v>4.33204770088195</v>
+      </c>
+      <c r="F41" s="2">
+        <v>1.3067483901977499E-2</v>
+      </c>
+      <c r="G41" s="2">
+        <v>4.0128233432769704</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" s="5" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" s="3">
-        <v>247</v>
+        <v>90</v>
       </c>
       <c r="E42" s="3">
-        <v>10.5903303623199</v>
+        <v>3.8413910865783598</v>
       </c>
       <c r="F42" s="3">
-        <v>2.9929637908935498E-2</v>
+        <v>1.2769699096679601E-2</v>
       </c>
       <c r="G42" s="3">
-        <v>10.201519012451101</v>
+        <v>3.6820578575134202</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A43" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>78</v>
+      <c r="A43" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D43" s="3">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="E43" s="3">
-        <v>2.7945151329040501</v>
+        <v>3.7754504680633501</v>
       </c>
       <c r="F43" s="3">
-        <v>7.4980258941650304E-3</v>
+        <v>1.27465724945068E-2</v>
       </c>
       <c r="G43" s="3">
-        <v>2.8632497787475502</v>
+        <v>3.6800765991210902</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" s="5" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D44" s="3">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="E44" s="3">
-        <v>5.0952785015106201</v>
+        <v>3.50532627105712</v>
       </c>
       <c r="F44" s="3">
-        <v>1.8336296081542899E-2</v>
+        <v>1.08335018157958E-2</v>
       </c>
       <c r="G44" s="3">
-        <v>5.1416106224059996</v>
+        <v>3.5141718387603702</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" s="5" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B45" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" s="3">
         <v>80</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D45" s="3">
-        <v>465</v>
-      </c>
       <c r="E45" s="3">
-        <v>19.431892156600899</v>
+        <v>3.3842749595642001</v>
       </c>
       <c r="F45" s="3">
-        <v>6.0044765472412102E-2</v>
+        <v>9.3469619750976493E-3</v>
       </c>
       <c r="G45" s="3">
-        <v>19.4617612361907</v>
+        <v>3.44901323318481</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" s="5" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D46" s="3">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E46" s="3">
-        <v>3.7754504680633501</v>
+        <v>3.4491879940032901</v>
       </c>
       <c r="F46" s="3">
-        <v>1.27465724945068E-2</v>
+        <v>1.3151168823242101E-2</v>
       </c>
       <c r="G46" s="3">
-        <v>3.6800765991210902</v>
+        <v>3.4237935543060298</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" s="5" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" s="3">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="E47" s="3">
-        <v>1.4397785663604701</v>
+        <v>3.26987624168396</v>
       </c>
       <c r="F47" s="3">
-        <v>7.9565048217773403E-3</v>
+        <v>8.9621543884277292E-3</v>
       </c>
       <c r="G47" s="3">
-        <v>1.4112687110900799</v>
+        <v>3.2665529251098602</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A48" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>83</v>
+      <c r="A48" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" s="3">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="E48" s="3">
-        <v>8.8374128341674805</v>
+        <v>2.7945151329040501</v>
       </c>
       <c r="F48" s="3">
-        <v>2.9088973999023399E-2</v>
+        <v>7.4980258941650304E-3</v>
       </c>
       <c r="G48" s="3">
-        <v>9.0336625576019198</v>
+        <v>2.8632497787475502</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49" s="5" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="D49" s="3">
-        <v>309</v>
+        <v>49</v>
       </c>
       <c r="E49" s="3">
-        <v>13.197017908096299</v>
+        <v>2.1520760059356601</v>
       </c>
       <c r="F49" s="3">
-        <v>3.3026218414306599E-2</v>
+        <v>1.41587257385253E-2</v>
       </c>
       <c r="G49" s="3">
-        <v>13.2499542236328</v>
+        <v>2.1773107051849299</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="3">
+        <v>32</v>
+      </c>
+      <c r="E50" s="3">
+        <v>1.4397785663604701</v>
+      </c>
+      <c r="F50" s="3">
+        <v>7.9565048217773403E-3</v>
+      </c>
+      <c r="G50" s="3">
+        <v>1.4112687110900799</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A51" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B51" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C51" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D51" s="3">
         <v>31</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E51" s="3">
         <v>1.4383349418640099</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F51" s="3">
         <v>8.2314014434814401E-3</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G51" s="3">
         <v>1.4007711410522401</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A51" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D51" s="3">
-        <v>375</v>
-      </c>
-      <c r="E51" s="3">
-        <v>15.7863585948944</v>
-      </c>
-      <c r="F51" s="3">
-        <v>3.4587621688842697E-2</v>
-      </c>
-      <c r="G51" s="3">
-        <v>16.018714189529401</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:G24" xr:uid="{03964D2A-9CE5-43C6-A8AA-B3BA8D6D6CEE}"/>
+  <autoFilter ref="A1:G24" xr:uid="{03964D2A-9CE5-43C6-A8AA-B3BA8D6D6CEE}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G51">
+      <sortCondition descending="1" ref="D1:D24"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A2:A24">
-    <cfRule type="duplicateValues" dxfId="21" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B24">
-    <cfRule type="duplicateValues" dxfId="20" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48 A50:A51 A46 A25:A44">
     <cfRule type="duplicateValues" dxfId="7" priority="8"/>
